--- a/99-exceldmd/DAM OOTB Data Model(abc).xlsx
+++ b/99-exceldmd/DAM OOTB Data Model(abc).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19635" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19635" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="19" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_RefDataAttribute">ATTRIBUTES!#REF!</definedName>
     <definedName name="RefDataAttribute">ATTRIBUTES!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="317">
   <si>
     <t>ACTION</t>
   </si>
@@ -1056,6 +1056,24 @@
   <si>
     <t>yresolution</t>
   </si>
+  <si>
+    <t>hasimages</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>relationshipGrid</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
 </sst>
 </file>
 
@@ -1278,7 +1296,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1318,6 +1336,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1891,7 +1910,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -53269,11 +53288,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -53322,6 +53341,46 @@
         <v>53</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H3" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -53332,11 +53391,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" filterMode="1"/>
-  <dimension ref="A1:Y771"/>
+  <dimension ref="A1:AA773"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A773" sqref="A773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -57411,14 +57470,78 @@
     <row r="768" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D768" s="33"/>
     </row>
-    <row r="769" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="D769" s="33"/>
     </row>
-    <row r="770" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="D770" s="33"/>
     </row>
-    <row r="771" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="D771" s="33"/>
+    </row>
+    <row r="772" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A772"/>
+      <c r="B772" t="s">
+        <v>313</v>
+      </c>
+      <c r="D772"/>
+      <c r="E772" t="s">
+        <v>311</v>
+      </c>
+      <c r="F772"/>
+      <c r="G772"/>
+      <c r="H772"/>
+      <c r="I772"/>
+      <c r="J772"/>
+      <c r="K772"/>
+      <c r="L772"/>
+      <c r="M772"/>
+      <c r="N772"/>
+      <c r="O772"/>
+      <c r="P772"/>
+      <c r="Q772"/>
+      <c r="R772"/>
+      <c r="S772"/>
+      <c r="T772"/>
+      <c r="U772"/>
+      <c r="V772"/>
+      <c r="W772"/>
+      <c r="X772"/>
+      <c r="Y772"/>
+      <c r="Z772"/>
+      <c r="AA772"/>
+    </row>
+    <row r="773" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A773"/>
+      <c r="B773" t="s">
+        <v>316</v>
+      </c>
+      <c r="D773"/>
+      <c r="E773" t="s">
+        <v>311</v>
+      </c>
+      <c r="F773"/>
+      <c r="G773"/>
+      <c r="H773"/>
+      <c r="I773"/>
+      <c r="J773"/>
+      <c r="K773"/>
+      <c r="L773"/>
+      <c r="M773"/>
+      <c r="N773"/>
+      <c r="O773"/>
+      <c r="P773"/>
+      <c r="Q773"/>
+      <c r="R773"/>
+      <c r="S773"/>
+      <c r="T773"/>
+      <c r="U773"/>
+      <c r="V773"/>
+      <c r="W773"/>
+      <c r="X773"/>
+      <c r="Y773"/>
+      <c r="Z773"/>
+      <c r="AA773"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y771">
